--- a/Subj/OPD/Labs/Lab3/Трассировка.xlsx
+++ b/Subj/OPD/Labs/Lab3/Трассировка.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="111">
   <si>
     <t xml:space="preserve">Адр</t>
   </si>
@@ -329,6 +329,49 @@
   </si>
   <si>
     <t xml:space="preserve">040D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3F8</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">— начало программы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">— конец программы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">— пропуск </t>
+  </si>
+  <si>
+    <t xml:space="preserve">— начало цикла</t>
   </si>
 </sst>
 </file>
@@ -339,7 +382,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +416,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +462,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007FFE"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,7 +518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,7 +527,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,6 +547,74 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,6 +624,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF007FFE"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -653,16 +864,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="A1:M31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="1" style="1" width="8.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="2" width="8.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="1" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="2" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,10 +910,11 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -740,10 +952,11 @@
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -781,10 +994,11 @@
       <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -822,10 +1036,11 @@
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -863,10 +1078,11 @@
       <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -904,10 +1120,11 @@
       <c r="K6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -945,10 +1162,11 @@
       <c r="K7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -986,10 +1204,11 @@
       <c r="K8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1027,10 +1246,11 @@
       <c r="K9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1068,10 +1288,11 @@
       <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1109,10 +1330,11 @@
       <c r="K11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1150,10 +1372,11 @@
       <c r="K12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1191,10 +1414,11 @@
       <c r="K13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1232,10 +1456,11 @@
       <c r="K14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1273,10 +1498,11 @@
       <c r="K15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1314,10 +1540,11 @@
       <c r="K16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1355,10 +1582,11 @@
       <c r="K17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1396,10 +1624,11 @@
       <c r="K18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1437,10 +1666,11 @@
       <c r="K19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1478,10 +1708,11 @@
       <c r="K20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1519,10 +1750,11 @@
       <c r="K21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1560,10 +1792,11 @@
       <c r="K22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="N22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1601,10 +1834,11 @@
       <c r="K23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1642,10 +1876,11 @@
       <c r="K24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1683,10 +1918,11 @@
       <c r="K25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1724,10 +1960,11 @@
       <c r="K26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1765,10 +2002,11 @@
       <c r="K27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1806,10 +2044,11 @@
       <c r="K28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1847,10 +2086,11 @@
       <c r="K29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1888,10 +2128,11 @@
       <c r="K30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1929,14 +2170,3228 @@
       <c r="K31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="8"/>
+      <c r="M81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="P82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC82" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="P83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC83" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="P84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z84" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC84" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="9"/>
+      <c r="M85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="P85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R85" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W85" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X85" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z85" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA85" s="11"/>
+      <c r="AB85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC85" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="9"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="P86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" s="9"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+      <c r="R87" s="0"/>
+      <c r="S87" s="0"/>
+      <c r="T87" s="0"/>
+      <c r="U87" s="0"/>
+      <c r="V87" s="0"/>
+      <c r="W87" s="0"/>
+      <c r="X87" s="0"/>
+      <c r="Y87" s="0"/>
+      <c r="Z87" s="0"/>
+      <c r="AA87" s="0"/>
+      <c r="AB87" s="0"/>
+      <c r="AC87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" s="9"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0"/>
+      <c r="U88" s="0"/>
+      <c r="V88" s="0"/>
+      <c r="W88" s="0"/>
+      <c r="X88" s="0"/>
+      <c r="Y88" s="0"/>
+      <c r="Z88" s="0"/>
+      <c r="AA88" s="0"/>
+      <c r="AB88" s="0"/>
+      <c r="AC88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" s="9"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="7"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+      <c r="R89" s="0"/>
+      <c r="S89" s="0"/>
+      <c r="T89" s="0"/>
+      <c r="U89" s="0"/>
+      <c r="V89" s="0"/>
+      <c r="W89" s="0"/>
+      <c r="X89" s="0"/>
+      <c r="Y89" s="0"/>
+      <c r="Z89" s="0"/>
+      <c r="AA89" s="0"/>
+      <c r="AB89" s="0"/>
+      <c r="AC89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" s="9"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="P90" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q90" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U90" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W90" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X90" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y90" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA90" s="11"/>
+      <c r="AB90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC90" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" s="9"/>
+      <c r="M91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R91" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T91" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W91" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y91" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z91" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA91" s="11"/>
+      <c r="AB91" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC91" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L92" s="9"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="P92" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q92" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R92" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S92" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T92" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U92" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W92" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X92" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z92" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC92" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L93" s="15"/>
+      <c r="M93" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R93" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S93" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T93" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U93" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W93" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X93" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z93" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC93" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94" s="15"/>
+      <c r="M94" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q94" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R94" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S94" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T94" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U94" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V94" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W94" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X94" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y94" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC94" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L95" s="15"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="P95" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R95" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T95" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V95" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W95" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X95" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y95" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z95" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC95" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L96" s="15"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="P96" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q96" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S96" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T96" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U96" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W96" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="X96" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y96" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z96" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC96" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD96" s="16"/>
+      <c r="AE96" s="16"/>
+      <c r="AF96" s="16"/>
+      <c r="AG96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="15"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="0"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0"/>
+      <c r="X97" s="0"/>
+      <c r="Y97" s="0"/>
+      <c r="Z97" s="0"/>
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="15"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="P98" s="0"/>
+      <c r="Q98" s="0"/>
+      <c r="R98" s="0"/>
+      <c r="S98" s="0"/>
+      <c r="T98" s="0"/>
+      <c r="U98" s="0"/>
+      <c r="V98" s="0"/>
+      <c r="W98" s="0"/>
+      <c r="X98" s="0"/>
+      <c r="Y98" s="0"/>
+      <c r="Z98" s="0"/>
+      <c r="AA98" s="0"/>
+      <c r="AB98" s="0"/>
+      <c r="AC98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" s="15"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="0"/>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0"/>
+      <c r="X99" s="0"/>
+      <c r="Y99" s="0"/>
+      <c r="Z99" s="0"/>
+      <c r="AA99" s="0"/>
+      <c r="AB99" s="0"/>
+      <c r="AC99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="15"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="P100" s="0"/>
+      <c r="Q100" s="0"/>
+      <c r="R100" s="0"/>
+      <c r="S100" s="0"/>
+      <c r="T100" s="0"/>
+      <c r="U100" s="0"/>
+      <c r="V100" s="0"/>
+      <c r="W100" s="0"/>
+      <c r="X100" s="0"/>
+      <c r="Y100" s="0"/>
+      <c r="Z100" s="0"/>
+      <c r="AA100" s="0"/>
+      <c r="AB100" s="0"/>
+      <c r="AC100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L101" s="15"/>
+      <c r="M101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P101" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q101" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R101" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S101" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T101" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U101" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W101" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X101" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y101" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z101" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC101" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L102" s="15"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="P102" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q102" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R102" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S102" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="T102" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U102" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="V102" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X102" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y102" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z102" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC102" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="P103" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R103" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S103" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T103" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V103" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W103" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y103" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z103" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA103" s="11"/>
+      <c r="AB103" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC103" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="P104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q104" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R104" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S104" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U104" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V104" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W104" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X104" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y104" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z104" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA104" s="11"/>
+      <c r="AB104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC104" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="P105" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q105" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R105" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S105" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T105" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U105" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V105" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W105" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X105" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y105" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z105" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA105" s="11"/>
+      <c r="AB105" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC105" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="P106" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R106" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S106" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T106" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="U106" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W106" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y106" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z106" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA106" s="11"/>
+      <c r="AB106" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC106" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="P107" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q107" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R107" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S107" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V107" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W107" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X107" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z107" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA107" s="11"/>
+      <c r="AB107" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC107" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="P108" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q108" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R108" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S108" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T108" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="U108" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="V108" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W108" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z108" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA108" s="11"/>
+      <c r="AB108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC108" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="P109" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q109" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R109" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S109" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V109" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W109" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z109" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA109" s="11"/>
+      <c r="AB109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC109" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="P110" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q110" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R110" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S110" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T110" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U110" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V110" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z110" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA110" s="11"/>
+      <c r="AB110" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC110" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="P111" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q111" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R111" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S111" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T111" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U111" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="V111" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W111" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X111" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z111" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA111" s="11"/>
+      <c r="AB111" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC111" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="P112" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q112" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R112" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S112" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T112" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="U112" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V112" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W112" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X112" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z112" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA112" s="11"/>
+      <c r="AB112" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC112" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="P113" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R113" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T113" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V113" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W113" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X113" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y113" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z113" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA113" s="11"/>
+      <c r="AB113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC113" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="P114" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q114" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R114" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S114" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T114" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U114" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V114" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W114" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X114" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y114" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z114" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA114" s="11"/>
+      <c r="AB114" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC114" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="P115" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q115" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R115" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S115" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T115" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U115" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V115" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W115" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X115" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y115" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z115" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA115" s="11"/>
+      <c r="AB115" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC115" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="P116" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q116" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R116" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S116" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T116" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U116" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V116" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W116" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X116" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y116" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z116" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA116" s="11"/>
+      <c r="AB116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC116" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="P117" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q117" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S117" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T117" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U117" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V117" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W117" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X117" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y117" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z117" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA117" s="11"/>
+      <c r="AB117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC117" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="7"/>
+      <c r="P118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q118" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R118" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S118" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U118" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V118" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W118" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X118" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y118" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z118" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA118" s="11"/>
+      <c r="AB118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC118" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+    </row>
+    <row r="121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="21"/>
+      <c r="B121" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+    </row>
+    <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="22"/>
+      <c r="B122" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="23"/>
+      <c r="B123" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
